--- a/data/trans_dic/P22$mutaSS-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,76</t>
+          <t>2,27; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,13</t>
+          <t>0,88; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,71</t>
+          <t>2,31; 6,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,89</t>
+          <t>0,44; 3,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,03</t>
+          <t>0,36; 3,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,26</t>
+          <t>2,35; 5,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,21</t>
+          <t>1,5; 4,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,21</t>
+          <t>0,9; 3,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,32</t>
+          <t>0,45; 2,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,5</t>
+          <t>2,65; 5,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,89</t>
+          <t>2,0; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,57</t>
+          <t>1,54; 5,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,06</t>
+          <t>0,21; 2,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,35</t>
+          <t>2,51; 7,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,2</t>
+          <t>1,33; 4,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,1</t>
+          <t>0,62; 3,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,67</t>
+          <t>0,19; 1,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,77</t>
+          <t>1,49; 3,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,32</t>
+          <t>2,05; 4,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,56</t>
+          <t>1,36; 3,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,56</t>
+          <t>0,31; 1,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,73</t>
+          <t>2,48; 5,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,86</t>
+          <t>1,5; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,49</t>
+          <t>2,64; 7,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,46</t>
+          <t>1,5; 5,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,78</t>
+          <t>0,63; 4,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,18</t>
+          <t>0,56; 3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,17</t>
+          <t>1,79; 6,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,17</t>
+          <t>0,26; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,49</t>
+          <t>0,51; 4,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,75</t>
+          <t>1,32; 3,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,74</t>
+          <t>2,63; 5,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,18</t>
+          <t>1,14; 3,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,41</t>
+          <t>0,82; 3,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,74</t>
+          <t>2,79; 7,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,59</t>
+          <t>0,81; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,25</t>
+          <t>0,64; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,14</t>
+          <t>0,82; 4,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,53</t>
+          <t>0,73; 3,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,99</t>
+          <t>1,54; 4,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,02</t>
+          <t>0,39; 1,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,74</t>
+          <t>2,15; 4,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,72</t>
+          <t>1,47; 3,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,04</t>
+          <t>0,4; 1,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,41</t>
+          <t>0,71; 2,4</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,37</t>
+          <t>5,1; 12,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,59 +1295,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,76</t>
+          <t>1,46; 5,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,63</t>
+          <t>4,79; 12,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,15</t>
+          <t>1,34; 4,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,4</t>
+          <t>5,53; 11,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,76</t>
+          <t>0,44; 2,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,21</t>
+          <t>1,76; 4,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,62</t>
+          <t>2,56; 7,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 8,46</t>
+          <t>2,4; 8,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,87</t>
+          <t>3,36; 9,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,04</t>
+          <t>1,99; 6,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,85</t>
+          <t>1,08; 4,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,12</t>
+          <t>0,71; 3,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,4</t>
+          <t>0,68; 3,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,25</t>
+          <t>1,02; 4,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,38</t>
+          <t>2,12; 5,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,29</t>
+          <t>1,83; 5,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,21</t>
+          <t>2,33; 6,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,64</t>
+          <t>1,74; 4,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,17</t>
+          <t>0,92; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,21</t>
+          <t>1,96; 4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,61</t>
+          <t>1,13; 3,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,28</t>
+          <t>1,18; 4,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,74</t>
+          <t>1,4; 4,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,69</t>
+          <t>1,26; 4,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,95</t>
+          <t>0,9; 2,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,55</t>
+          <t>0,31; 1,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,03</t>
+          <t>1,39; 3,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,75</t>
+          <t>1,82; 3,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,87</t>
+          <t>1,24; 2,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,39</t>
+          <t>0,84; 2,5</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,13</t>
+          <t>1,63; 4,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,28</t>
+          <t>0,65; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,68</t>
+          <t>2,08; 4,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,38</t>
+          <t>0,44; 2,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,41</t>
+          <t>4,54; 8,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,34</t>
+          <t>1,13; 3,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,27</t>
+          <t>1,05; 3,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,51</t>
+          <t>0,99; 2,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,58</t>
+          <t>3,57; 5,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,4</t>
+          <t>1,1; 2,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,47</t>
+          <t>1,8; 3,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,1</t>
+          <t>0,84; 2,18</t>
         </is>
       </c>
     </row>
@@ -1844,37 +1845,37 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,27</t>
+          <t>2,97; 4,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,3</t>
+          <t>2,14; 3,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,88</t>
+          <t>1,79; 2,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,38</t>
+          <t>2,03; 3,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,99</t>
+          <t>2,79; 4,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,57</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,72</t>
+          <t>0,95; 1,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,22 +1885,22 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,93</t>
+          <t>3,01; 3,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,75</t>
+          <t>2,0; 2,79</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,11</t>
+          <t>1,49; 2,14</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,55</t>
+          <t>1,78; 2,54</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Seguridad Social)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11348</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6016</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12971</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2237</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4511</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10387</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13585</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10303</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23358</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6181; 19369</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2584; 11978</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6705</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7210; 21044</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7535</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1252; 10177</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1046; 10847</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6799; 15504</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8018; 22887</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5255; 17870</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2592; 14156</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15953; 32203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17642</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15069</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4162</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23337</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12605</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12533</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30247</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23092</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7404</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35870</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9868; 28359</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7786; 26281</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1039; 10446</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12991; 37517</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6684; 21216</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3255; 16604</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>982; 8777</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7665; 19076</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20462; 43979</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14025; 36260</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3153; 14901</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25576; 53136</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10268</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14499</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4851</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2680</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5604</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15119</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26498</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12617</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11440</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4769; 17936</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8557; 24978</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4755; 17653</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1980; 13469</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1867; 10574</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6105; 20921</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>864; 7199</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1790; 15939</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8640; 24629</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17463; 39057</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7463; 22329</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5441; 21324</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16975</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5795</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6062</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6562</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10968</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23537</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18961</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7871</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9948; 27015</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3032; 16853</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2358; 12822</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2565; 14183</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2721; 13155</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5976; 18834</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7171</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1858; 8977</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15607; 35906</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11198; 29211</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2998; 14626</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5627; 18903</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17164</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5696</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5239</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33533</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4961</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10935</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10365; 26401</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>913; 8014</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4723</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2609; 9993</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9949; 25352</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6569</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4712</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2788; 8734</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22728; 46654</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1904; 10916</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7298</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6824; 16830</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12768</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15799</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6870</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5064</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19638</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17432</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20863</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6945; 21459</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6564; 22949</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8845; 25788</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5365; 18415</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3000; 13881</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1991; 10923</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1863; 10758</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2620; 10658</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11650; 29823</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10120; 29376</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12512; 32771</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9178; 23887</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11128</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20772</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14713</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15508</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15691</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11468</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>7305</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26636</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36463</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>25002</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>22019</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5666; 19325</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13001; 32535</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7394; 23517</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7385; 29159</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8911; 25719</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8742; 27954</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6207; 20102</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2663; 13073</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17445; 37790</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>24750; 50318</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>16642; 36524</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12413; 36873</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>19801</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10161</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25306</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>12692</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>48468</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>16232</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>16014</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>11679</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>68269</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>26393</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>41320</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>24371</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>12123; 30520</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5042; 17050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>16172; 37882</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4060; 21608</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>35589; 63454</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>9284; 27090</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>8705; 26789</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>7058; 17866</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>54418; 85526</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>17580; 39730</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>28820; 58341</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>13881; 35801</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>117093</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>89925</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>91149</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>113471</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>62739</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>230564</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>123186</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>153888</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>97240; 140671</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>73191; 112473</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>60680; 96571</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>70274; 116316</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>94062; 136296</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>56292; 93592</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>33448; 61918</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>48184; 77324</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>200172; 265303</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>139526; 194698</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>103529; 148426</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>126393; 180810</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>